--- a/Annotation/Biomarker.xlsx
+++ b/Annotation/Biomarker.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laura.plutowski/Desktop/Uni/4.Semester/projekt/project-02-group-05/Annotation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1CAB8A7-87AF-8B4E-B5A8-3817A06F2E9E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B12F7926-84B6-5D42-9D9D-E81C3E12108F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{EB7AE287-EB1A-444E-9E47-48BF434A5742}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="biomarker" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
   <si>
     <t xml:space="preserve">FAM57A                                                                                                     </t>
   </si>
@@ -74,9 +74,6 @@
     <t xml:space="preserve">RUNDC3B                                                                                               </t>
   </si>
   <si>
-    <t xml:space="preserve">TMEM35B///ZMYM6                                                                                     </t>
-  </si>
-  <si>
     <t xml:space="preserve">MCM5                                                                                                    </t>
   </si>
   <si>
@@ -204,6 +201,9 @@
   </si>
   <si>
     <t>Mannose-P-Dolichol utilization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMEM35B, ZMYM6                                                                                     </t>
   </si>
 </sst>
 </file>
@@ -264,6 +264,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EB8CF476-7970-4540-8EED-DD1A9CA10E57}" name="Tabelle1" displayName="Tabelle1" ref="A1:C27" totalsRowShown="0">
+  <autoFilter ref="A1:C27" xr:uid="{F2EE7D68-69C9-B94F-A4D8-8378F7154E2D}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{1A40D6A5-D6A4-C141-A071-595861A46283}" name="Gene"/>
+    <tableColumn id="2" xr3:uid="{EBD389BB-D4DA-2A4C-BE49-C690B44180CC}" name="Function"/>
+    <tableColumn id="3" xr3:uid="{776CC2FC-0EAD-9A40-BF48-ECB452494425}" name="affected Tissue (if specific)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -566,20 +578,23 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="25.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -587,10 +602,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
         <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -598,10 +613,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -609,10 +624,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -620,10 +635,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -631,10 +646,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -642,10 +657,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -653,10 +668,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -664,10 +679,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -675,10 +690,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -686,10 +701,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -697,7 +712,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -705,10 +723,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -716,7 +734,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -724,145 +745,148 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
         <v>40</v>
-      </c>
-      <c r="C17" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
         <v>43</v>
-      </c>
-      <c r="C19" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>